--- a/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11631</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6123</v>
+        <v>5699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18832</v>
+        <v>18821</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0426023247132636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02242788859370618</v>
+        <v>0.02087587589438773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06898092673118625</v>
+        <v>0.06893986536310298</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -765,19 +765,19 @@
         <v>30731</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20885</v>
+        <v>20689</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41475</v>
+        <v>43163</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1178157071283018</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08006809083124282</v>
+        <v>0.07931631172830664</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1590067586156765</v>
+        <v>0.1654788988268086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -786,19 +786,19 @@
         <v>42362</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31889</v>
+        <v>31250</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56901</v>
+        <v>55968</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07935157535108105</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05973503098391832</v>
+        <v>0.05853660144507672</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1065864122828021</v>
+        <v>0.1048390010392824</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>261379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>254178</v>
+        <v>254189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266887</v>
+        <v>267311</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9573976752867364</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9310190732688137</v>
+        <v>0.9310601346368971</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9775721114062937</v>
+        <v>0.9791241241056123</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>216</v>
@@ -836,19 +836,19 @@
         <v>230107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>219363</v>
+        <v>217675</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>239953</v>
+        <v>240149</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8821842928716982</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8409932413843229</v>
+        <v>0.834521101173192</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9199319091687571</v>
+        <v>0.9206836882716937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>475</v>
@@ -857,19 +857,19 @@
         <v>491486</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>476947</v>
+        <v>477880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>501959</v>
+        <v>502598</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9206484246489189</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8934135877171976</v>
+        <v>0.8951609989607174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9402649690160817</v>
+        <v>0.9414633985549232</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>17804</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10978</v>
+        <v>10836</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26802</v>
+        <v>27331</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03610724781071496</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02226361774900013</v>
+        <v>0.02197610501452495</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05435623754222259</v>
+        <v>0.05543007230888186</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -982,19 +982,19 @@
         <v>64406</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51603</v>
+        <v>49901</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81544</v>
+        <v>79769</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1278027868572642</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1023966666370815</v>
+        <v>0.09901993477277825</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1618096439883088</v>
+        <v>0.1582872979193157</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -1003,19 +1003,19 @@
         <v>82210</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64563</v>
+        <v>65653</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99473</v>
+        <v>100449</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08245505172132502</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06475553418707514</v>
+        <v>0.06584929097640525</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09976956946024455</v>
+        <v>0.1007485566763564</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>475271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>466273</v>
+        <v>465744</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>482097</v>
+        <v>482239</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9638927521892851</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9456437624577774</v>
+        <v>0.9445699276911181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9777363822509999</v>
+        <v>0.978023894985475</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>435</v>
@@ -1053,19 +1053,19 @@
         <v>439543</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>422405</v>
+        <v>424180</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>452346</v>
+        <v>454048</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8721972131427358</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8381903560116912</v>
+        <v>0.8417127020806844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8976033333629184</v>
+        <v>0.9009800652272218</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>882</v>
@@ -1074,19 +1074,19 @@
         <v>914814</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>897551</v>
+        <v>896575</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>932461</v>
+        <v>931371</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9175449482786749</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9002304305397555</v>
+        <v>0.8992514433236437</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9352444658129249</v>
+        <v>0.9341507090235949</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>9685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4815</v>
+        <v>3995</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18183</v>
+        <v>16954</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03037569973179342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01510076719744175</v>
+        <v>0.01253052123315239</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0570271948352872</v>
+        <v>0.05317349919354455</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1199,19 +1199,19 @@
         <v>18263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11776</v>
+        <v>11368</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27295</v>
+        <v>28582</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05445045502492189</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03510859195552486</v>
+        <v>0.03389339648237098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08137698803236688</v>
+        <v>0.085215727978076</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1220,19 +1220,19 @@
         <v>27949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18464</v>
+        <v>19177</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39432</v>
+        <v>40422</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04271786893265384</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02822078016746835</v>
+        <v>0.02931130693616278</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06026979502312002</v>
+        <v>0.06178256921345045</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>309161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300663</v>
+        <v>301892</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314031</v>
+        <v>314851</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9696243002682066</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9429728051647124</v>
+        <v>0.9468265008064555</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9848992328025582</v>
+        <v>0.9874694787668477</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>317</v>
@@ -1270,19 +1270,19 @@
         <v>317149</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>308117</v>
+        <v>306830</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>323636</v>
+        <v>324044</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9455495449750781</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9186230119676332</v>
+        <v>0.9147842720219234</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9648914080444752</v>
+        <v>0.9661066035176288</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>618</v>
@@ -1291,19 +1291,19 @@
         <v>626309</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>614826</v>
+        <v>613836</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>635794</v>
+        <v>635081</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9572821310673462</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.93973020497688</v>
+        <v>0.9382174307865493</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9717792198325312</v>
+        <v>0.9706886930638372</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>10149</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5352</v>
+        <v>5496</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18263</v>
+        <v>19391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02829586127158102</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01492036271960502</v>
+        <v>0.01532349177850417</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05091936042707455</v>
+        <v>0.05406355664968151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1416,19 +1416,19 @@
         <v>32933</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22905</v>
+        <v>23071</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43049</v>
+        <v>44286</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08865939498440575</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06166408339609394</v>
+        <v>0.06210865745597351</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.115893153599152</v>
+        <v>0.1192219186734009</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1437,19 +1437,19 @@
         <v>43082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30849</v>
+        <v>32363</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55001</v>
+        <v>56079</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0590061244209708</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04225103943037163</v>
+        <v>0.04432497178784833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07533061318366724</v>
+        <v>0.0768072159976229</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>348522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>340408</v>
+        <v>339280</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>353319</v>
+        <v>353175</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.971704138728419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9490806395729257</v>
+        <v>0.9459364433503182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.985079637280395</v>
+        <v>0.9846765082214958</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>350</v>
@@ -1487,19 +1487,19 @@
         <v>338523</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>328407</v>
+        <v>327170</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>348551</v>
+        <v>348385</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9113406050155942</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8841068464008478</v>
+        <v>0.8807780813265991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9383359166039059</v>
+        <v>0.9378913425440265</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>702</v>
@@ -1508,19 +1508,19 @@
         <v>687045</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>675126</v>
+        <v>674048</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>699278</v>
+        <v>697764</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9409938755790292</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9246693868163328</v>
+        <v>0.9231927840023771</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9577489605696287</v>
+        <v>0.9556750282121519</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>13551</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7956</v>
+        <v>7934</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20881</v>
+        <v>22552</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06665338040957866</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03913518486443665</v>
+        <v>0.03902275258587237</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1027045535060218</v>
+        <v>0.1109245745931142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1633,19 +1633,19 @@
         <v>33492</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24022</v>
+        <v>23670</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45904</v>
+        <v>45254</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1612757197639879</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1156736380114622</v>
+        <v>0.1139799789323829</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2210462654706792</v>
+        <v>0.2179142472539207</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1654,19 +1654,19 @@
         <v>47043</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35987</v>
+        <v>35803</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60703</v>
+        <v>62055</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1144664638250437</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08756512707513972</v>
+        <v>0.08711757214038417</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1477037773489495</v>
+        <v>0.1509932960911976</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>189757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182427</v>
+        <v>180756</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195352</v>
+        <v>195374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9333466195904213</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8972954464939781</v>
+        <v>0.8890754254068858</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9608648151355633</v>
+        <v>0.9609772474141276</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>166</v>
@@ -1704,19 +1704,19 @@
         <v>174176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161764</v>
+        <v>162414</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183646</v>
+        <v>183998</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8387242802360121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7789537345293208</v>
+        <v>0.7820857527460794</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8843263619885378</v>
+        <v>0.8860200210676172</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>357</v>
@@ -1725,19 +1725,19 @@
         <v>363933</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>350273</v>
+        <v>348921</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>374989</v>
+        <v>375173</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8855335361749562</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8522962226510505</v>
+        <v>0.8490067039088024</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9124348729248601</v>
+        <v>0.9128824278596158</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>5875</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2001</v>
+        <v>1978</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11899</v>
+        <v>12932</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02169289908802997</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007387764057050451</v>
+        <v>0.007303140232642214</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04393735797657688</v>
+        <v>0.04775102812158413</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1850,19 +1850,19 @@
         <v>19105</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11957</v>
+        <v>11809</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29567</v>
+        <v>29207</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06868565308024838</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04298759911336004</v>
+        <v>0.04245726834452342</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1062999677944889</v>
+        <v>0.1050081524288587</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -1871,19 +1871,19 @@
         <v>24979</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16028</v>
+        <v>16037</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35292</v>
+        <v>35817</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04550314304469235</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02919667243645593</v>
+        <v>0.02921318829510729</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06428862359814795</v>
+        <v>0.06524530506040879</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>264936</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258912</v>
+        <v>257879</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268810</v>
+        <v>268833</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.97830710091197</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9560626420234232</v>
+        <v>0.952248971878416</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9926122359429496</v>
+        <v>0.9926968597673578</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -1921,19 +1921,19 @@
         <v>259039</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248577</v>
+        <v>248937</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>266187</v>
+        <v>266335</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9313143469197517</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8937000322055112</v>
+        <v>0.894991847571142</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.95701240088664</v>
+        <v>0.9575427316554769</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -1942,19 +1942,19 @@
         <v>523976</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>513663</v>
+        <v>513138</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532927</v>
+        <v>532918</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9544968569553076</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9357113764018519</v>
+        <v>0.9347546949395911</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9708033275635437</v>
+        <v>0.9707868117048924</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>29787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20896</v>
+        <v>20793</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42098</v>
+        <v>41447</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04843128000547697</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03397504356091231</v>
+        <v>0.03380810457904362</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06844954594110612</v>
+        <v>0.06739037487765173</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -2067,19 +2067,19 @@
         <v>74864</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60368</v>
+        <v>59958</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92416</v>
+        <v>91382</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1173020127851664</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09458827061672499</v>
+        <v>0.09394514796123934</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1448028452120387</v>
+        <v>0.1431821647118309</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -2088,19 +2088,19 @@
         <v>104651</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86667</v>
+        <v>86095</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>125797</v>
+        <v>125815</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0835038925359592</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06915385825182306</v>
+        <v>0.0686975502764416</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1003772938948297</v>
+        <v>0.1003912300292251</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>585240</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>572929</v>
+        <v>573580</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>594131</v>
+        <v>594234</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9515687199945231</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9315504540588941</v>
+        <v>0.9326096251223486</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9660249564390877</v>
+        <v>0.9661918954209565</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>545</v>
@@ -2138,19 +2138,19 @@
         <v>563355</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>545803</v>
+        <v>546837</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>577851</v>
+        <v>578261</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8826979872148336</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8551971547879612</v>
+        <v>0.8568178352881691</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9054117293832751</v>
+        <v>0.9060548520387607</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1113</v>
@@ -2159,19 +2159,19 @@
         <v>1148595</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1127449</v>
+        <v>1127431</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1166579</v>
+        <v>1167151</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9164961074640408</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8996227061051701</v>
+        <v>0.8996087699707748</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9308461417481768</v>
+        <v>0.9313024497235584</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>62544</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49467</v>
+        <v>49296</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80097</v>
+        <v>79793</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08408820904051967</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06650648209544811</v>
+        <v>0.06627631418245745</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1076870930588268</v>
+        <v>0.1072787383197414</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>95</v>
@@ -2284,19 +2284,19 @@
         <v>103013</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>83996</v>
+        <v>83997</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>122374</v>
+        <v>123802</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1314763268658994</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1072040177227685</v>
+        <v>0.1072063751951715</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1561870911939187</v>
+        <v>0.1580096028551297</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>158</v>
@@ -2305,19 +2305,19 @@
         <v>165558</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>141876</v>
+        <v>143499</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>189931</v>
+        <v>190879</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1083984065830643</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09289269528411369</v>
+        <v>0.09395559805104817</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1243569473209208</v>
+        <v>0.1249772715427483</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>681251</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>663698</v>
+        <v>664002</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>694328</v>
+        <v>694499</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9159117909594804</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8923129069411733</v>
+        <v>0.8927212616802586</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9334935179045519</v>
+        <v>0.9337236858175425</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>650</v>
@@ -2355,19 +2355,19 @@
         <v>680498</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>661137</v>
+        <v>659709</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>699515</v>
+        <v>699514</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8685236731341006</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8438129088060802</v>
+        <v>0.8419903971448707</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8927959822772312</v>
+        <v>0.8927936248048286</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1323</v>
@@ -2376,19 +2376,19 @@
         <v>1361748</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1337375</v>
+        <v>1336427</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1385430</v>
+        <v>1383807</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8916015934169358</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8756430526790793</v>
+        <v>0.8750227284572518</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9071073047158865</v>
+        <v>0.9060444019489519</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>161025</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>137855</v>
+        <v>139899</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>187146</v>
+        <v>185988</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04914487340575364</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0420732608442741</v>
+        <v>0.0426970094682789</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05711691939304123</v>
+        <v>0.05676361908476334</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>367</v>
@@ -2501,19 +2501,19 @@
         <v>376807</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>342786</v>
+        <v>342502</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>415323</v>
+        <v>416447</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1115078897795158</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1014400154049544</v>
+        <v>0.1013560041919524</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1229058573576801</v>
+        <v>0.1232384754402429</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>530</v>
@@ -2522,19 +2522,19 @@
         <v>537832</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>495514</v>
+        <v>489557</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>588250</v>
+        <v>583759</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08080730570318109</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07444903985757284</v>
+        <v>0.07355411007078812</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08838235495880821</v>
+        <v>0.08770765617422931</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3115518</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3089397</v>
+        <v>3090555</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3138688</v>
+        <v>3136644</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9508551265942463</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9428830806069589</v>
+        <v>0.943236380915237</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.957926739155726</v>
+        <v>0.9573029905317213</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2930</v>
@@ -2572,19 +2572,19 @@
         <v>3002390</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2963874</v>
+        <v>2962750</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3036411</v>
+        <v>3036695</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8884921102204841</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8770941426423199</v>
+        <v>0.8767615245597572</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8985599845950456</v>
+        <v>0.8986439958080475</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5981</v>
@@ -2593,19 +2593,19 @@
         <v>6117909</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6067491</v>
+        <v>6071982</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6160227</v>
+        <v>6166184</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9191926942968189</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9116176450411918</v>
+        <v>0.9122923438257707</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9255509601424271</v>
+        <v>0.926445889929212</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>28764</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19522</v>
+        <v>19144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40379</v>
+        <v>41200</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09759038007973599</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06623370186844781</v>
+        <v>0.06495198606156864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1370004199013898</v>
+        <v>0.1397834833628505</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -2962,19 +2962,19 @@
         <v>54300</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41621</v>
+        <v>40938</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69289</v>
+        <v>69497</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1890378072263145</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1448963869514288</v>
+        <v>0.1425182395143079</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2412189621688169</v>
+        <v>0.2419429795994923</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -2983,19 +2983,19 @@
         <v>83064</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67160</v>
+        <v>66553</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100571</v>
+        <v>101066</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.14272540092323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1153985881664853</v>
+        <v>0.1143562420374855</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.172807806447637</v>
+        <v>0.1736587218863123</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>265974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>254359</v>
+        <v>253538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>275216</v>
+        <v>275594</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.902409619920264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8629995800986102</v>
+        <v>0.8602165166371497</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9337662981315522</v>
+        <v>0.9350480139384315</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -3033,19 +3033,19 @@
         <v>232945</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217956</v>
+        <v>217748</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245624</v>
+        <v>246307</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8109621927736855</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.758781037831183</v>
+        <v>0.7580570204005077</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8551036130485711</v>
+        <v>0.857481760485692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>461</v>
@@ -3054,19 +3054,19 @@
         <v>498919</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>481412</v>
+        <v>480917</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>514823</v>
+        <v>515430</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8572745990767699</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.827192193552363</v>
+        <v>0.8263412781136877</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8846014118335146</v>
+        <v>0.8856437579625145</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>28982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18563</v>
+        <v>18164</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44001</v>
+        <v>43664</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05732989886468098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03671951291222991</v>
+        <v>0.03593002890902156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08703897088269989</v>
+        <v>0.08637365131256711</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -3179,19 +3179,19 @@
         <v>88159</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68460</v>
+        <v>70587</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107138</v>
+        <v>105716</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1683186392481214</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1307075428359212</v>
+        <v>0.1347686687134476</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2045531201284721</v>
+        <v>0.2018395287562458</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -3200,19 +3200,19 @@
         <v>117141</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97802</v>
+        <v>95320</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>140808</v>
+        <v>141035</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1138075585896849</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09501902277698762</v>
+        <v>0.09260738693080688</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1368010187697832</v>
+        <v>0.1370212713870805</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>476545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>461526</v>
+        <v>461863</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>486964</v>
+        <v>487363</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.942670101135319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9129610291173001</v>
+        <v>0.9136263486874325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9632804870877701</v>
+        <v>0.9640699710909784</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>402</v>
@@ -3250,19 +3250,19 @@
         <v>435606</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>416627</v>
+        <v>418049</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>455305</v>
+        <v>453178</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8316813607518786</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.795446879871528</v>
+        <v>0.7981604712437541</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8692924571640788</v>
+        <v>0.8652313312865524</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>853</v>
@@ -3271,19 +3271,19 @@
         <v>912151</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>888484</v>
+        <v>888257</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>931490</v>
+        <v>933972</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8861924414103151</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8631989812302168</v>
+        <v>0.8629787286129195</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9049809772230124</v>
+        <v>0.9073926130691932</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>27187</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17109</v>
+        <v>17299</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39401</v>
+        <v>39499</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08389922940923503</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05279768384312696</v>
+        <v>0.05338362916824158</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1215916933231175</v>
+        <v>0.1218928269033527</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -3396,19 +3396,19 @@
         <v>45024</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32669</v>
+        <v>34415</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59965</v>
+        <v>59876</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1320284209550579</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0957979485097762</v>
+        <v>0.1009192542239738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1758407856503102</v>
+        <v>0.1755779544099144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -3417,19 +3417,19 @@
         <v>72212</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55948</v>
+        <v>56408</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88979</v>
+        <v>87953</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1085780087681269</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08412369658812212</v>
+        <v>0.08481626813100571</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1337896687378896</v>
+        <v>0.1322468076916862</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>296859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>284645</v>
+        <v>284547</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>306937</v>
+        <v>306747</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.916100770590765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8784083066768824</v>
+        <v>0.8781071730966472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.947202316156873</v>
+        <v>0.9466163708317584</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -3467,19 +3467,19 @@
         <v>295996</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>281055</v>
+        <v>281144</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>308351</v>
+        <v>306605</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.867971579044942</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8241592143496899</v>
+        <v>0.8244220455900856</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9042020514902238</v>
+        <v>0.8990807457760263</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>569</v>
@@ -3488,19 +3488,19 @@
         <v>592854</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>576087</v>
+        <v>577113</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>609118</v>
+        <v>608658</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.891421991231873</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8662103312621103</v>
+        <v>0.8677531923083138</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9158763034118779</v>
+        <v>0.9151837318689942</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>19019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11531</v>
+        <v>12280</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30032</v>
+        <v>30534</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05085516074194051</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03083215909359851</v>
+        <v>0.03283544206108302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08030452307334954</v>
+        <v>0.08164603025172186</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -3613,19 +3613,19 @@
         <v>66407</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51483</v>
+        <v>50871</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81744</v>
+        <v>81864</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1707330834544701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1323640226734609</v>
+        <v>0.130789195484046</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.21016657078303</v>
+        <v>0.2104728252608583</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -3634,19 +3634,19 @@
         <v>85426</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68805</v>
+        <v>68824</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103381</v>
+        <v>104089</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.111970134994712</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09018437752256586</v>
+        <v>0.09021015411771288</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1355046827268105</v>
+        <v>0.1364331338816211</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>354963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343950</v>
+        <v>343448</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>362451</v>
+        <v>361702</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9491448392580595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9196954769266504</v>
+        <v>0.9183539697482782</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9691678409064013</v>
+        <v>0.967164557938917</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>305</v>
@@ -3684,19 +3684,19 @@
         <v>322544</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>307207</v>
+        <v>307087</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>337468</v>
+        <v>338080</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.82926691654553</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.78983342921697</v>
+        <v>0.7895271747391412</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8676359773265391</v>
+        <v>0.8692108045159539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>632</v>
@@ -3705,19 +3705,19 @@
         <v>677507</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>659552</v>
+        <v>658844</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>694128</v>
+        <v>694109</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.888029865005288</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8644953172731896</v>
+        <v>0.863566866118379</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9098156224774342</v>
+        <v>0.9097898458822873</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>10987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5299</v>
+        <v>5620</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19152</v>
+        <v>19994</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05167647718488323</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02492119198758911</v>
+        <v>0.02643374294334115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09007732406680913</v>
+        <v>0.09403741439327944</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -3830,19 +3830,19 @@
         <v>57050</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44993</v>
+        <v>44160</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71156</v>
+        <v>71026</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2598028363634236</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2048959319541835</v>
+        <v>0.2011003733039366</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3240405133641366</v>
+        <v>0.3234452146878027</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -3851,19 +3851,19 @@
         <v>68038</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53672</v>
+        <v>53827</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82732</v>
+        <v>84770</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1574185398808487</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1241805476798078</v>
+        <v>0.1245395943834488</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1914156297277959</v>
+        <v>0.1961323331826205</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>201631</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193466</v>
+        <v>192624</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207319</v>
+        <v>206998</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9483235228151168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9099226759331903</v>
+        <v>0.9059625856067204</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9750788080124109</v>
+        <v>0.9735662570566588</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>157</v>
@@ -3901,19 +3901,19 @@
         <v>162541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>148435</v>
+        <v>148565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174598</v>
+        <v>175431</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7401971636365764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.675959486635863</v>
+        <v>0.6765547853121973</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7951040680458165</v>
+        <v>0.7988996266960634</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>343</v>
@@ -3922,19 +3922,19 @@
         <v>364171</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>349477</v>
+        <v>347439</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>378537</v>
+        <v>378382</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8425814601191512</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8085843702722041</v>
+        <v>0.8038676668173795</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8758194523201923</v>
+        <v>0.8754604056165511</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>20193</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12791</v>
+        <v>12322</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30649</v>
+        <v>31114</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07370140767597402</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04668514326059402</v>
+        <v>0.04497422943012037</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.111865213479556</v>
+        <v>0.1135619559326755</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -4047,19 +4047,19 @@
         <v>43359</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33693</v>
+        <v>31559</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57223</v>
+        <v>55735</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1548351314895878</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1203171038874778</v>
+        <v>0.1126988062599711</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2043454026900518</v>
+        <v>0.1990303530040251</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -4068,19 +4068,19 @@
         <v>63551</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48896</v>
+        <v>49536</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80435</v>
+        <v>79769</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1147112731484117</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08825849673699805</v>
+        <v>0.08941318635958807</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1451866053319273</v>
+        <v>0.1439845039456703</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>253788</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>243332</v>
+        <v>242867</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261190</v>
+        <v>261659</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.926298592324026</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8881347865204439</v>
+        <v>0.8864380440673245</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.953314856739406</v>
+        <v>0.9550257705698796</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>228</v>
@@ -4118,19 +4118,19 @@
         <v>236672</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>222808</v>
+        <v>224296</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246338</v>
+        <v>248472</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8451648685104122</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7956545973099483</v>
+        <v>0.8009696469959749</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8796828961125222</v>
+        <v>0.8873011937400289</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>470</v>
@@ -4139,19 +4139,19 @@
         <v>490461</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>473577</v>
+        <v>474243</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>505116</v>
+        <v>504476</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8852887268515883</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8548133946680729</v>
+        <v>0.8560154960543297</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9117415032630021</v>
+        <v>0.9105868136404119</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>45878</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33143</v>
+        <v>33123</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59548</v>
+        <v>61030</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06921956169883822</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05000521319643426</v>
+        <v>0.04997470962386746</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08984398541069706</v>
+        <v>0.09208055555505806</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>75</v>
@@ -4264,19 +4264,19 @@
         <v>81286</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65597</v>
+        <v>64082</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98993</v>
+        <v>100473</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1171516153623207</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09454037948854684</v>
+        <v>0.09235708711880083</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1426711364285718</v>
+        <v>0.1448041002920173</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -4285,19 +4285,19 @@
         <v>127164</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>105698</v>
+        <v>105482</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151928</v>
+        <v>151102</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09373437260517105</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07791137208134408</v>
+        <v>0.07775212674632179</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1119884579618322</v>
+        <v>0.1113791964568913</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>616910</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>603240</v>
+        <v>601758</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>629645</v>
+        <v>629665</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9307804383011617</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9101560145893033</v>
+        <v>0.907919444444942</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9499947868035659</v>
+        <v>0.9500252903761325</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>561</v>
@@ -4335,19 +4335,19 @@
         <v>612567</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>594860</v>
+        <v>593380</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>628256</v>
+        <v>629771</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8828483846376792</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8573288635714275</v>
+        <v>0.8551958997079826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9054596205114527</v>
+        <v>0.9076429128811986</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1137</v>
@@ -4356,19 +4356,19 @@
         <v>1229477</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1204713</v>
+        <v>1205539</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1250943</v>
+        <v>1251159</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.906265627394829</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8880115420381676</v>
+        <v>0.8886208035431085</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9220886279186556</v>
+        <v>0.9222478732536781</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>46671</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35007</v>
+        <v>34417</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63215</v>
+        <v>64065</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05990365162394456</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04493296094854933</v>
+        <v>0.04417553341285609</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08113887502093935</v>
+        <v>0.08223011106453468</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>109</v>
@@ -4481,19 +4481,19 @@
         <v>119240</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>97965</v>
+        <v>100261</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>141430</v>
+        <v>140076</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.144734885521187</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1189104548340785</v>
+        <v>0.1216981430252997</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1716690505331287</v>
+        <v>0.1700257237809848</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>151</v>
@@ -4502,19 +4502,19 @@
         <v>165911</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>142723</v>
+        <v>145125</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>193822</v>
+        <v>192788</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.103503521392321</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08903771551272835</v>
+        <v>0.09053639286313872</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1209158551978617</v>
+        <v>0.1202707918408767</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>732427</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>715883</v>
+        <v>715033</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>744091</v>
+        <v>744681</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9400963483760554</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9188611249790607</v>
+        <v>0.917769888935468</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9550670390514506</v>
+        <v>0.955824466587144</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>648</v>
@@ -4552,19 +4552,19 @@
         <v>704613</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>682423</v>
+        <v>683777</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>725888</v>
+        <v>723592</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.855265114478813</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8283309494668712</v>
+        <v>0.8299742762190151</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8810895451659215</v>
+        <v>0.8783018569747003</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1323</v>
@@ -4573,19 +4573,19 @@
         <v>1437040</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1409129</v>
+        <v>1410163</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1460228</v>
+        <v>1457826</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.896496478607679</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8790841448021384</v>
+        <v>0.8797292081591233</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9109622844872716</v>
+        <v>0.9094636071368613</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>227680</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>199201</v>
+        <v>196926</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>262819</v>
+        <v>258005</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06644152872346339</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05813063991163545</v>
+        <v>0.05746668967104272</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07669556211991747</v>
+        <v>0.07529091260980979</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>517</v>
@@ -4698,19 +4698,19 @@
         <v>554826</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>510457</v>
+        <v>509607</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>602450</v>
+        <v>599446</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1559240591775809</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1434550107223809</v>
+        <v>0.1432160928701153</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1693078760066396</v>
+        <v>0.1684638530021988</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>719</v>
@@ -4719,19 +4719,19 @@
         <v>782506</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>730335</v>
+        <v>729928</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>835467</v>
+        <v>836114</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1120252785224281</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1045563095667852</v>
+        <v>0.1044980968154723</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1196072179792998</v>
+        <v>0.1196998952315047</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3199099</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3163960</v>
+        <v>3168774</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3227578</v>
+        <v>3229853</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9335584712765366</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9233044378800828</v>
+        <v>0.9247090873901901</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9418693600883646</v>
+        <v>0.9425333103289573</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2781</v>
@@ -4769,19 +4769,19 @@
         <v>3003483</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2955859</v>
+        <v>2958863</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3047852</v>
+        <v>3048702</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8440759408224191</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8306921239933603</v>
+        <v>0.8315361469978008</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.856544989277619</v>
+        <v>0.8567839071298843</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5788</v>
@@ -4790,19 +4790,19 @@
         <v>6202582</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6149621</v>
+        <v>6148974</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6254753</v>
+        <v>6255160</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8879747214775718</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8803927820207003</v>
+        <v>0.8803001047684953</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8954436904332148</v>
+        <v>0.8955019031845277</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>22551</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14334</v>
+        <v>13716</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32818</v>
+        <v>32791</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0767650043375204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04879378452681726</v>
+        <v>0.04669182408512924</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1117174721160103</v>
+        <v>0.1116255160300407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -5159,19 +5159,19 @@
         <v>51970</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38033</v>
+        <v>39845</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64722</v>
+        <v>67753</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1800136414672502</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.131737094993656</v>
+        <v>0.1380155273258891</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2241802583358284</v>
+        <v>0.2346807315337353</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -5180,19 +5180,19 @@
         <v>74521</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59700</v>
+        <v>58965</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92279</v>
+        <v>92246</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1279410276373085</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1024960350357572</v>
+        <v>0.1012333236927302</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1584291847282944</v>
+        <v>0.1583713281918085</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>271210</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>260943</v>
+        <v>260970</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279427</v>
+        <v>280045</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9232349956624796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8882825278839896</v>
+        <v>0.8883744839699592</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9512062154731827</v>
+        <v>0.9533081759148707</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -5230,19 +5230,19 @@
         <v>236733</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>223981</v>
+        <v>220950</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250670</v>
+        <v>248858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8199863585327498</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7758197416641716</v>
+        <v>0.7653192684662647</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8682629050063441</v>
+        <v>0.8619844726741109</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>473</v>
@@ -5251,19 +5251,19 @@
         <v>507943</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>490185</v>
+        <v>490218</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>522764</v>
+        <v>523499</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8720589723626915</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8415708152717055</v>
+        <v>0.8416286718081912</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8975039649642428</v>
+        <v>0.8987666763072697</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>29423</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20505</v>
+        <v>20678</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41722</v>
+        <v>41829</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05854350673642079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04079897172175861</v>
+        <v>0.04114335828028508</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08301662945532197</v>
+        <v>0.08322868508830752</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -5376,19 +5376,19 @@
         <v>75007</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58911</v>
+        <v>60238</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92532</v>
+        <v>92816</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1433929285806519</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1126226932716545</v>
+        <v>0.115158629024995</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1768975485662166</v>
+        <v>0.1774397273706258</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -5397,19 +5397,19 @@
         <v>104429</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83395</v>
+        <v>88040</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124643</v>
+        <v>126656</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1018165237245571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08130824240857204</v>
+        <v>0.08583782325811166</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1215251452203906</v>
+        <v>0.1234871138937545</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>473152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460853</v>
+        <v>460746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>482070</v>
+        <v>481897</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9414564932635792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9169833705446775</v>
+        <v>0.9167713149116921</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9592010282782414</v>
+        <v>0.9588566417197149</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>418</v>
@@ -5447,19 +5447,19 @@
         <v>448077</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>430552</v>
+        <v>430268</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>464173</v>
+        <v>462846</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8566070714193481</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8231024514337835</v>
+        <v>0.8225602726293745</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8873773067283457</v>
+        <v>0.8848413709750051</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>865</v>
@@ -5468,19 +5468,19 @@
         <v>921230</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>901016</v>
+        <v>899003</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>942264</v>
+        <v>937619</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8981834762754428</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8784748547796095</v>
+        <v>0.8765128861062456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9186917575914281</v>
+        <v>0.9141621767418884</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>11868</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6092</v>
+        <v>6333</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20384</v>
+        <v>20173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03725512501870382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01912404343748114</v>
+        <v>0.01987928576956861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06398779209532719</v>
+        <v>0.06332524788595933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -5593,19 +5593,19 @@
         <v>40690</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28764</v>
+        <v>30410</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52334</v>
+        <v>53601</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1209885012570955</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08552990862307762</v>
+        <v>0.09042134416789792</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.15561165596826</v>
+        <v>0.1593790446560771</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -5614,19 +5614,19 @@
         <v>52558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40921</v>
+        <v>39598</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67832</v>
+        <v>67587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08025620341510314</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06248666396698431</v>
+        <v>0.06046661650422411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1035794960767552</v>
+        <v>0.103205699675234</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>306697</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>298181</v>
+        <v>298392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312473</v>
+        <v>312232</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9627448749812961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9360122079046728</v>
+        <v>0.9366747521140407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9808759565625188</v>
+        <v>0.9801207142304313</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>292</v>
@@ -5664,19 +5664,19 @@
         <v>295619</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>283975</v>
+        <v>282708</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>307545</v>
+        <v>305899</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8790114987429045</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8443883440317401</v>
+        <v>0.8406209553439229</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9144700913769224</v>
+        <v>0.9095786558321015</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>616</v>
@@ -5685,19 +5685,19 @@
         <v>602316</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>587042</v>
+        <v>587287</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>613953</v>
+        <v>615276</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9197437965848969</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8964205039232449</v>
+        <v>0.8967943003247667</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9375133360330157</v>
+        <v>0.939533383495776</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>21738</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13950</v>
+        <v>14096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32220</v>
+        <v>32926</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05875647073184549</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03770539544089545</v>
+        <v>0.03809978854401805</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08708889086459501</v>
+        <v>0.08899777590762459</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -5810,19 +5810,19 @@
         <v>62389</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47795</v>
+        <v>49338</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76852</v>
+        <v>78502</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1610950889858627</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.123410911857805</v>
+        <v>0.1273963915228224</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1984392024214371</v>
+        <v>0.2026988971412813</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -5831,19 +5831,19 @@
         <v>84127</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68089</v>
+        <v>68102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103840</v>
+        <v>104373</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1110960735706585</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08991618764624765</v>
+        <v>0.08993327992177973</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1371276831661145</v>
+        <v>0.1378320198173996</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>348226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>337744</v>
+        <v>337038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356014</v>
+        <v>355868</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9412435292681545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.912911109135405</v>
+        <v>0.9110022240923753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9622946045591045</v>
+        <v>0.9619002114559819</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>300</v>
@@ -5881,19 +5881,19 @@
         <v>324894</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>310431</v>
+        <v>308781</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339488</v>
+        <v>337945</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8389049110141373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8015607975785627</v>
+        <v>0.7973011028587186</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8765890881421949</v>
+        <v>0.8726036084771776</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>633</v>
@@ -5902,19 +5902,19 @@
         <v>673120</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>653407</v>
+        <v>652874</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>689158</v>
+        <v>689145</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8889039264293415</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8628723168338855</v>
+        <v>0.8621679801826004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9100838123537524</v>
+        <v>0.9100667200782203</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>20060</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12357</v>
+        <v>12329</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29311</v>
+        <v>30431</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09497372262714959</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05850175641298251</v>
+        <v>0.05837243321930836</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.138769881891547</v>
+        <v>0.1440701081317055</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -6027,19 +6027,19 @@
         <v>36689</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26477</v>
+        <v>25999</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47849</v>
+        <v>48745</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.167846495579931</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1211286565478455</v>
+        <v>0.1189399122454514</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2188996843405001</v>
+        <v>0.2230014522891224</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -6048,19 +6048,19 @@
         <v>56750</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43458</v>
+        <v>43655</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70576</v>
+        <v>71897</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1320345518484783</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1011092583426052</v>
+        <v>0.1015697506092898</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1642037963318689</v>
+        <v>0.1672762345493871</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>191161</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>181910</v>
+        <v>180790</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198864</v>
+        <v>198892</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9050262773728504</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8612301181084531</v>
+        <v>0.8559298918682942</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9414982435870175</v>
+        <v>0.9416275667806913</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -6098,19 +6098,19 @@
         <v>181898</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>170738</v>
+        <v>169842</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192110</v>
+        <v>192588</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.832153504420069</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7811003156594998</v>
+        <v>0.7769985477108774</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.878871343452153</v>
+        <v>0.8810600877545482</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>379</v>
@@ -6119,19 +6119,19 @@
         <v>373058</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>359232</v>
+        <v>357911</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>386350</v>
+        <v>386153</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8679654481515217</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8357962036681311</v>
+        <v>0.8327237654506129</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8988907416573948</v>
+        <v>0.8984302493907103</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>17697</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11042</v>
+        <v>10687</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27432</v>
+        <v>26676</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06725751205680426</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04196646117975727</v>
+        <v>0.0406161687467053</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.104255999158206</v>
+        <v>0.101383705369988</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -6244,19 +6244,19 @@
         <v>47211</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35148</v>
+        <v>35741</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59776</v>
+        <v>60946</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1728596489085192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1286920707711765</v>
+        <v>0.1308636216313724</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2188681891916747</v>
+        <v>0.2231500623419762</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -6265,19 +6265,19 @@
         <v>64908</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50632</v>
+        <v>51039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79871</v>
+        <v>78859</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1210424502239472</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09442095656781765</v>
+        <v>0.09517910370302092</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1489461967492121</v>
+        <v>0.1470602750020495</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>245426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235691</v>
+        <v>236447</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252081</v>
+        <v>252436</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9327424879431957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.895744000841794</v>
+        <v>0.8986162946300117</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9580335388202427</v>
+        <v>0.9593838312532945</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>218</v>
@@ -6315,19 +6315,19 @@
         <v>225904</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>213339</v>
+        <v>212169</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>237967</v>
+        <v>237374</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8271403510914808</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7811318108083255</v>
+        <v>0.7768499376580233</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8713079292288235</v>
+        <v>0.8691363783686276</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>459</v>
@@ -6336,19 +6336,19 @@
         <v>471330</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>456367</v>
+        <v>457379</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>485606</v>
+        <v>485199</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8789575497760529</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8510538032507878</v>
+        <v>0.8529397249979505</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9055790434321823</v>
+        <v>0.904820896296979</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>48157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34819</v>
+        <v>34342</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63747</v>
+        <v>62128</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07334696171515849</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05303261877541934</v>
+        <v>0.05230626956657213</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09709320489252038</v>
+        <v>0.09462752583031449</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -6461,19 +6461,19 @@
         <v>96466</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79364</v>
+        <v>76522</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>119415</v>
+        <v>115889</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1395437619647945</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1148055503050663</v>
+        <v>0.1106937345499227</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1727418214893444</v>
+        <v>0.1676401431813531</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -6482,19 +6482,19 @@
         <v>144622</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120595</v>
+        <v>122264</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>168444</v>
+        <v>169392</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.107298353222801</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08947204458956398</v>
+        <v>0.09071031196846573</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1249720699302971</v>
+        <v>0.1256758035505124</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>608401</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>592811</v>
+        <v>594430</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>621739</v>
+        <v>622216</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9266530382848415</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9029067951074795</v>
+        <v>0.9053724741696855</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9469673812245806</v>
+        <v>0.9476937304334279</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>562</v>
@@ -6532,19 +6532,19 @@
         <v>594828</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>571879</v>
+        <v>575405</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>611930</v>
+        <v>614772</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8604562380352055</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8272581785106556</v>
+        <v>0.8323598568186468</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8851944496949337</v>
+        <v>0.8893062654500773</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1097</v>
@@ -6553,19 +6553,19 @@
         <v>1203230</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1179408</v>
+        <v>1178460</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1227257</v>
+        <v>1225588</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8927016467771991</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8750279300697029</v>
+        <v>0.8743241964494876</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.910527955410436</v>
+        <v>0.9092896880315342</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>41205</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30014</v>
+        <v>30827</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55366</v>
+        <v>54030</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05292291262354361</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03854921506743719</v>
+        <v>0.03959391849898558</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07111169783838869</v>
+        <v>0.0693955498779614</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>108</v>
@@ -6678,19 +6678,19 @@
         <v>127910</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>104307</v>
+        <v>107813</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>150883</v>
+        <v>151606</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1548234726028148</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1262537225391137</v>
+        <v>0.1304974291802413</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1826296786442583</v>
+        <v>0.1835049578605107</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>150</v>
@@ -6699,19 +6699,19 @@
         <v>169115</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>144223</v>
+        <v>142845</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>197214</v>
+        <v>195542</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1053839689894342</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08987273114766484</v>
+        <v>0.08901394566476213</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1228936938504775</v>
+        <v>0.1218518962830094</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>737378</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>723217</v>
+        <v>724553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>748569</v>
+        <v>747756</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9470770873764564</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9288883021616111</v>
+        <v>0.9306044501220386</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9614507849325621</v>
+        <v>0.9604060815010144</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>647</v>
@@ -6749,19 +6749,19 @@
         <v>698257</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>675284</v>
+        <v>674561</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>721860</v>
+        <v>718354</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8451765273971852</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8173703213557417</v>
+        <v>0.8164950421394893</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8737462774608863</v>
+        <v>0.8695025708197588</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1355</v>
@@ -6770,19 +6770,19 @@
         <v>1435635</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1407536</v>
+        <v>1409208</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1460527</v>
+        <v>1461905</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8946160310105659</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8771063061495226</v>
+        <v>0.8781481037169906</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.910127268852335</v>
+        <v>0.9109860543352378</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>212698</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>185084</v>
+        <v>186278</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>245386</v>
+        <v>242556</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06266233043007094</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05452705418241923</v>
+        <v>0.05487889444617853</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07229249793615865</v>
+        <v>0.0714587886004555</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>486</v>
@@ -6895,19 +6895,19 @@
         <v>538331</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>495460</v>
+        <v>495132</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>584598</v>
+        <v>586360</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1518761437633046</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1397812206681608</v>
+        <v>0.13968864298809</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1649289782620119</v>
+        <v>0.165426064505011</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>692</v>
@@ -6916,19 +6916,19 @@
         <v>751029</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>697762</v>
+        <v>698555</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>805572</v>
+        <v>804651</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1082347492915023</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1005581341675076</v>
+        <v>0.1006724758896181</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1160952366650049</v>
+        <v>0.1159624068668762</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3181652</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3148964</v>
+        <v>3151794</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3209266</v>
+        <v>3208072</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.937337669569929</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9277075020638413</v>
+        <v>0.9285412113995445</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9454729458175808</v>
+        <v>0.9451211055538215</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2852</v>
@@ -6966,19 +6966,19 @@
         <v>3006211</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2959944</v>
+        <v>2958182</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3049082</v>
+        <v>3049410</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8481238562366954</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8350710217379881</v>
+        <v>0.834573935494989</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8602187793318392</v>
+        <v>0.86031135701191</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5877</v>
@@ -6987,19 +6987,19 @@
         <v>6187863</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6133320</v>
+        <v>6134241</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6241130</v>
+        <v>6240337</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8917652507084977</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8839047633349951</v>
+        <v>0.8840375931331239</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8994418658324925</v>
+        <v>0.8993275241103822</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>21304</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14386</v>
+        <v>15456</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30858</v>
+        <v>31881</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06681693795901125</v>
+        <v>0.06681693795901128</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04511754596272673</v>
+        <v>0.04847545937714049</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09678009703761954</v>
+        <v>0.09998746244039176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -7356,19 +7356,19 @@
         <v>37471</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29435</v>
+        <v>30028</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46317</v>
+        <v>46507</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1185547667568512</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09313052724953293</v>
+        <v>0.09500716597133317</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.146543085044159</v>
+        <v>0.1471461370496405</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -7377,19 +7377,19 @@
         <v>58775</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47248</v>
+        <v>48437</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69309</v>
+        <v>71764</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09257239371404731</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07441723027846439</v>
+        <v>0.07628968057658853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.10916375656373</v>
+        <v>0.1130310466130237</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>297541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287987</v>
+        <v>286964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>304459</v>
+        <v>303389</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9331830620409887</v>
+        <v>0.9331830620409889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9032199029623806</v>
+        <v>0.9000125375596081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9548824540372733</v>
+        <v>0.9515245406228595</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>464</v>
@@ -7427,19 +7427,19 @@
         <v>278590</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269744</v>
+        <v>269554</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286626</v>
+        <v>286033</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8814452332431487</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8534569149558408</v>
+        <v>0.8528538629503596</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9068694727504669</v>
+        <v>0.9049928340286674</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>769</v>
@@ -7448,19 +7448,19 @@
         <v>576131</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>565597</v>
+        <v>563142</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>587658</v>
+        <v>586469</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9074276062859529</v>
+        <v>0.9074276062859526</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8908362434362702</v>
+        <v>0.8869689533869761</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9255827697215357</v>
+        <v>0.9237103194234115</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>43751</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30510</v>
+        <v>31158</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59829</v>
+        <v>60256</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08244846778137048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05749575071374448</v>
+        <v>0.05871765409425513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1127477900496384</v>
+        <v>0.1135522260757503</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -7573,19 +7573,19 @@
         <v>91496</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77431</v>
+        <v>77280</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105919</v>
+        <v>106664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.167423540158455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1416874244287059</v>
+        <v>0.1414098489237669</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1938154231948775</v>
+        <v>0.1951791568947876</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>172</v>
@@ -7594,19 +7594,19 @@
         <v>135247</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114499</v>
+        <v>116134</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>156705</v>
+        <v>158431</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1255610978196161</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1062993774096622</v>
+        <v>0.1078169831596306</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1454820476443314</v>
+        <v>0.1470851592716395</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>486896</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>470818</v>
+        <v>470391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500137</v>
+        <v>499489</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9175515322186294</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8872522099503616</v>
+        <v>0.8864477739242498</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9425042492862556</v>
+        <v>0.941282345905745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>581</v>
@@ -7644,19 +7644,19 @@
         <v>454998</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>440575</v>
+        <v>439830</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>469063</v>
+        <v>469214</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.832576459841545</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8061845768051225</v>
+        <v>0.8048208431052123</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8583125755712943</v>
+        <v>0.8585901510762332</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>927</v>
@@ -7665,19 +7665,19 @@
         <v>941894</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>920436</v>
+        <v>918710</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>962642</v>
+        <v>961007</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8744389021803838</v>
+        <v>0.8744389021803839</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8545179523556686</v>
+        <v>0.8529148407283603</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8937006225903379</v>
+        <v>0.8921830168403695</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>32113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23476</v>
+        <v>23849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42952</v>
+        <v>44085</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1016248731977899</v>
+        <v>0.10162487319779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07429426849855436</v>
+        <v>0.0754740752333638</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1359258935530429</v>
+        <v>0.1395137132716817</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>113</v>
@@ -7790,19 +7790,19 @@
         <v>66347</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55709</v>
+        <v>56165</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78725</v>
+        <v>77756</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1861673359712729</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1563186497340776</v>
+        <v>0.1575986133101198</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2209025530437463</v>
+        <v>0.2181831218834827</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>156</v>
@@ -7811,19 +7811,19 @@
         <v>98459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83773</v>
+        <v>83934</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>113399</v>
+        <v>113365</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1464352343222297</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1245931007561044</v>
+        <v>0.1248326882240612</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1686548588842967</v>
+        <v>0.1686031073010726</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>283880</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>273041</v>
+        <v>271908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>292517</v>
+        <v>292144</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8983751268022099</v>
+        <v>0.8983751268022101</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8640741064469565</v>
+        <v>0.8604862867283183</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9257057315014453</v>
+        <v>0.9245259247666364</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>423</v>
@@ -7861,19 +7861,19 @@
         <v>290034</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277656</v>
+        <v>278625</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>300672</v>
+        <v>300216</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.813832664028727</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7790974469562538</v>
+        <v>0.7818168781165176</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8436813502659229</v>
+        <v>0.8424013866898802</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>740</v>
@@ -7882,19 +7882,19 @@
         <v>573916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>558976</v>
+        <v>559010</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>588602</v>
+        <v>588441</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8535647656777704</v>
+        <v>0.8535647656777702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8313451411157028</v>
+        <v>0.8313968926989274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8754068992438956</v>
+        <v>0.8751673117759386</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>29717</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19577</v>
+        <v>19428</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44034</v>
+        <v>44916</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07963964191609323</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05246590539780386</v>
+        <v>0.05206548239165213</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1180079838853925</v>
+        <v>0.1203725618690503</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -8007,19 +8007,19 @@
         <v>54666</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43980</v>
+        <v>44188</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68061</v>
+        <v>71988</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1295519689021706</v>
+        <v>0.1295519689021707</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1042281792739063</v>
+        <v>0.1047204993089599</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1612968005934329</v>
+        <v>0.1706043591606069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -8028,19 +8028,19 @@
         <v>84383</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69167</v>
+        <v>68733</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103727</v>
+        <v>102756</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1061280081951456</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08699088672519978</v>
+        <v>0.086445564762062</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1304565015272296</v>
+        <v>0.1292356322871918</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>343428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>329111</v>
+        <v>328229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>353568</v>
+        <v>353717</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9203603580839068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8819920161146073</v>
+        <v>0.8796274381309495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9475340946021956</v>
+        <v>0.9479345176083478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>505</v>
@@ -8078,19 +8078,19 @@
         <v>367295</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>353900</v>
+        <v>349973</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>377981</v>
+        <v>377773</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8704480310978294</v>
+        <v>0.8704480310978295</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8387031994065671</v>
+        <v>0.8293956408393928</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8957718207260938</v>
+        <v>0.89527950069104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>769</v>
@@ -8099,19 +8099,19 @@
         <v>710724</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>691380</v>
+        <v>692351</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>725940</v>
+        <v>726374</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8938719918048543</v>
+        <v>0.8938719918048542</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8695434984727705</v>
+        <v>0.8707643677128083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9130091132748004</v>
+        <v>0.9135544352379379</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>12183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7926</v>
+        <v>7671</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18350</v>
+        <v>18705</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05923702657487782</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03853701693501953</v>
+        <v>0.0373001480833885</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08922196470009604</v>
+        <v>0.09094897861978909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -8224,19 +8224,19 @@
         <v>38106</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30406</v>
+        <v>31302</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45523</v>
+        <v>45742</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1664622036577897</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1328228940551171</v>
+        <v>0.1367384774586854</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1988605695262487</v>
+        <v>0.1998168682909612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>117</v>
@@ -8245,19 +8245,19 @@
         <v>50289</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42279</v>
+        <v>41087</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60748</v>
+        <v>60051</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1157182238431086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09728737993885872</v>
+        <v>0.09454302638154304</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1397837808963327</v>
+        <v>0.1381812956547146</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>193482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187315</v>
+        <v>186960</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197739</v>
+        <v>197994</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9407629734251219</v>
+        <v>0.9407629734251223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9107780352999041</v>
+        <v>0.9090510213802118</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9614629830649805</v>
+        <v>0.9626998519166116</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>399</v>
@@ -8295,19 +8295,19 @@
         <v>190812</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183395</v>
+        <v>183176</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198512</v>
+        <v>197616</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8335377963422104</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8011394304737512</v>
+        <v>0.8001831317090388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.867177105944883</v>
+        <v>0.8632615225413144</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>657</v>
@@ -8316,19 +8316,19 @@
         <v>384293</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>373834</v>
+        <v>374531</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>392303</v>
+        <v>393495</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8842817761568914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8602162191036676</v>
+        <v>0.8618187043452848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9027126200611413</v>
+        <v>0.9054569736184568</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>29805</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21777</v>
+        <v>22915</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38365</v>
+        <v>39537</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1101013253609168</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08044535373714082</v>
+        <v>0.08464767258639862</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1417204886173135</v>
+        <v>0.1460515085988878</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>132</v>
@@ -8441,19 +8441,19 @@
         <v>59303</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50701</v>
+        <v>49857</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69151</v>
+        <v>70072</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2248436475875016</v>
+        <v>0.2248436475875014</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1922309372939366</v>
+        <v>0.1890298793064056</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2621836213705757</v>
+        <v>0.2656757775132006</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>188</v>
@@ -8462,19 +8462,19 @@
         <v>89108</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>77658</v>
+        <v>76725</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102250</v>
+        <v>102533</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1667257228830573</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1453024456866696</v>
+        <v>0.1435575592855271</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1913152864267898</v>
+        <v>0.1918447117758626</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>240902</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232342</v>
+        <v>231170</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248930</v>
+        <v>247792</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8898986746390831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8582795113826865</v>
+        <v>0.8539484914011123</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9195546462628591</v>
+        <v>0.9153523274136015</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>328</v>
@@ -8512,19 +8512,19 @@
         <v>204447</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194599</v>
+        <v>193678</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213049</v>
+        <v>213893</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7751563524124986</v>
+        <v>0.7751563524124983</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7378163786294243</v>
+        <v>0.7343242224867991</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8077690627060633</v>
+        <v>0.8109701206935945</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>643</v>
@@ -8533,19 +8533,19 @@
         <v>445349</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>432207</v>
+        <v>431924</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>456799</v>
+        <v>457732</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8332742771169427</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.80868471357321</v>
+        <v>0.8081552882241374</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8546975543133303</v>
+        <v>0.856442440714473</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>62323</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46888</v>
+        <v>46599</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80893</v>
+        <v>80929</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08659745628649423</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06515009880577487</v>
+        <v>0.06474841539791233</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1124006756994172</v>
+        <v>0.1124496116455989</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>190</v>
@@ -8658,19 +8658,19 @@
         <v>140574</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>122752</v>
+        <v>123113</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>162678</v>
+        <v>161813</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1820768677068705</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1589928714192582</v>
+        <v>0.1594606025722292</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2107066969575485</v>
+        <v>0.2095863404391116</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>249</v>
@@ -8679,19 +8679,19 @@
         <v>202897</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>177816</v>
+        <v>180343</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>230104</v>
+        <v>229097</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1360131302087985</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1191999099422598</v>
+        <v>0.1208942748660699</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1542517413824339</v>
+        <v>0.1535768956558204</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>657364</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>638794</v>
+        <v>638758</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>672799</v>
+        <v>673088</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9134025437135059</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8875993243005827</v>
+        <v>0.887550388354401</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9348499011942251</v>
+        <v>0.9352515846020877</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>770</v>
@@ -8729,19 +8729,19 @@
         <v>631483</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>609379</v>
+        <v>610244</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>649305</v>
+        <v>648944</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8179231322931294</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7892933030424516</v>
+        <v>0.7904136595608884</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8410071285807419</v>
+        <v>0.8405393974277713</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1310</v>
@@ -8750,19 +8750,19 @@
         <v>1288847</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1261640</v>
+        <v>1262647</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1313928</v>
+        <v>1311401</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8639868697912014</v>
+        <v>0.8639868697912017</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8457482586175655</v>
+        <v>0.8464231043441794</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8808000900577402</v>
+        <v>0.87910572513393</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>74114</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>60776</v>
+        <v>58997</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92397</v>
+        <v>90032</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09286633463911051</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07615351091969132</v>
+        <v>0.07392501879277598</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.115775384149803</v>
+        <v>0.1128116822970588</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>241</v>
@@ -8875,19 +8875,19 @@
         <v>164511</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>145871</v>
+        <v>145080</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>185027</v>
+        <v>184442</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1978885452569883</v>
+        <v>0.1978885452569884</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1754669889307637</v>
+        <v>0.1745148084826547</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2225667099872609</v>
+        <v>0.22186324813419</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>330</v>
@@ -8896,19 +8896,19 @@
         <v>238625</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>213041</v>
+        <v>215464</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>265276</v>
+        <v>263449</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.146449302187673</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1307479843377105</v>
+        <v>0.1322350763800377</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1628056401667152</v>
+        <v>0.1616846504009447</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>723958</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>705675</v>
+        <v>708040</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>737296</v>
+        <v>739075</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9071336653608895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8842246158501962</v>
+        <v>0.8871883177029412</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9238464890803084</v>
+        <v>0.9260749812072241</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>821</v>
@@ -8946,19 +8946,19 @@
         <v>666820</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>646304</v>
+        <v>646889</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>685460</v>
+        <v>686251</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8021114547430117</v>
+        <v>0.8021114547430115</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7774332900127394</v>
+        <v>0.77813675186581</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8245330110692364</v>
+        <v>0.8254851915173453</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1494</v>
@@ -8967,19 +8967,19 @@
         <v>1390778</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1364127</v>
+        <v>1365954</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1416362</v>
+        <v>1413939</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.853550697812327</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8371943598332846</v>
+        <v>0.8383153495990552</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8692520156622893</v>
+        <v>0.8677649236199619</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>305311</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>271348</v>
+        <v>272755</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>338871</v>
+        <v>340144</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08642261199445743</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07680896252088661</v>
+        <v>0.07720743472747255</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09592231400750947</v>
+        <v>0.09628282270148825</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1076</v>
@@ -9092,19 +9092,19 @@
         <v>652472</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>613837</v>
+        <v>618933</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>690323</v>
+        <v>694369</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1746000586174658</v>
+        <v>0.1746000586174659</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1642613995045958</v>
+        <v>0.1656248994785302</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1847286610536542</v>
+        <v>0.1858114030307083</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1434</v>
@@ -9113,19 +9113,19 @@
         <v>957783</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>910419</v>
+        <v>907136</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1010484</v>
+        <v>1009452</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1317497022331892</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1252344288296142</v>
+        <v>0.1247829083231158</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1389990655670844</v>
+        <v>0.1388571139817483</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3227451</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3193891</v>
+        <v>3192618</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3261414</v>
+        <v>3260007</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9135773880055427</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9040776859924906</v>
+        <v>0.903717177298512</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9231910374791136</v>
+        <v>0.9227925652725276</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4291</v>
@@ -9163,19 +9163,19 @@
         <v>3084482</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3046631</v>
+        <v>3042585</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3123117</v>
+        <v>3118021</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8253999413825344</v>
+        <v>0.8253999413825341</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8152713389463457</v>
+        <v>0.8141885969692918</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8357386004954042</v>
+        <v>0.8343751005214698</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7309</v>
@@ -9184,19 +9184,19 @@
         <v>6311933</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6259232</v>
+        <v>6260264</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6359297</v>
+        <v>6362580</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8682502977668107</v>
+        <v>0.8682502977668105</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8610009344329157</v>
+        <v>0.8611428860182516</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8747655711703859</v>
+        <v>0.8752170916768842</v>
       </c>
     </row>
     <row r="30">
